--- a/Gloss/Proverbs/Proverbs Structure.xlsx
+++ b/Gloss/Proverbs/Proverbs Structure.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\My Documents\fingerskier\me\Currier\Gloss\Proverbs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412A3126-A55D-4A88-A143-9BE99861DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16572" windowHeight="6384" activeTab="1"/>
+    <workbookView xWindow="16764" yWindow="24" windowWidth="14868" windowHeight="17232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pillars" sheetId="3" r:id="rId1"/>
@@ -25,8 +31,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="bible" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="bible" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="1257" firstRow="71" sourceFile="C:\projects\Logos\bible\bible.js" comma="1" consecutive="1" delimiter="]">
       <textFields count="31">
         <textField/>
@@ -444,7 +450,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -710,14 +716,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Counseled" xfId="4"/>
-    <cellStyle name="Discrete" xfId="3"/>
-    <cellStyle name="Insightful" xfId="6"/>
-    <cellStyle name="Knowledgable" xfId="2"/>
+    <cellStyle name="Counseled" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Discrete" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Insightful" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Knowledgable" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Prudent" xfId="1"/>
-    <cellStyle name="Strong" xfId="7"/>
-    <cellStyle name="Wise" xfId="5"/>
+    <cellStyle name="Prudent" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Strong" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Wise" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,7 +744,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bible.js" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="bible.js" connectionId="1" xr16:uid="{00000000-0016-0000-0300-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -996,18 +1002,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,18 +1133,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="36" width="3.33203125" style="19" customWidth="1"/>
-    <col min="37" max="39" width="8.88671875" style="19" hidden="1"/>
-    <col min="40" max="56" width="0" style="19" hidden="1"/>
+    <col min="37" max="39" width="8.88671875" style="19" hidden="1" customWidth="1"/>
+    <col min="40" max="56" width="0" style="19" hidden="1" customWidth="1"/>
     <col min="57" max="16384" width="8.88671875" style="19" hidden="1"/>
   </cols>
   <sheetData>
@@ -4150,7 +4156,6 @@
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
     </row>
-    <row r="32" spans="1:36" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4158,8 +4163,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="A32:XFD1048576"/>
@@ -4168,7 +4173,8 @@
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="36" width="3.33203125" customWidth="1"/>
-    <col min="37" max="39" width="8.88671875" hidden="1"/>
+    <col min="37" max="39" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="40" max="56" width="0" hidden="1" customWidth="1"/>
     <col min="57" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
@@ -7199,7 +7205,6 @@
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
     </row>
-    <row r="32" spans="1:55" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7207,7 +7212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:EU66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
